--- a/scenarios/cough/processes/Night.xlsx
+++ b/scenarios/cough/processes/Night.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -67,35 +67,7 @@
     <t xml:space="preserve">Nein, mein Schlaf wird nicht durch meinen Husten gestört.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">IF [time] == 'few_days' THEN LOAD(Explanation), JUMP(Safety) ELSE JUMP(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Explanation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">IF ([time] == few_days) THEN (LOAD(Explanation), JUMP(Safety)) ELSE JUMP(Explanation)</t>
   </si>
   <si>
     <t xml:space="preserve">calmer</t>
@@ -132,56 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">Okay, danke für den Tipp, dann reicht mir der Schleimlöser. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">IF [time] == 'few_days' THEN LOAD(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Explanation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">), JUMP(Safety) ELSE JUMP(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Explanation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -192,7 +114,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -229,12 +151,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -300,7 +216,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -418,7 +334,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -586,7 +502,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/scenarios/cough/processes/Night.xlsx
+++ b/scenarios/cough/processes/Night.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Nein, mein Schlaf wird nicht durch meinen Husten gestört.</t>
   </si>
   <si>
-    <t xml:space="preserve">IF ([time] == few_days) THEN (LOAD(Explanation), JUMP(Safety)) ELSE JUMP(Explanation)</t>
+    <t xml:space="preserve">IF [time] == few_days THEN LOAD(Explanation); JUMP(Safety); ELSE JUMP(Explanation)</t>
   </si>
   <si>
     <t xml:space="preserve">calmer</t>
@@ -334,7 +334,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scenarios/cough/processes/Night.xlsx
+++ b/scenarios/cough/processes/Night.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup</t>
   </si>
   <si>
     <t xml:space="preserve">need_calmer</t>
@@ -153,7 +159,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +170,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF3652A0"/>
         <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF203864"/>
+        <bgColor rgb="FF333333"/>
       </patternFill>
     </fill>
   </fills>
@@ -220,7 +232,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -235,6 +247,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -313,7 +329,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF203864"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -331,10 +347,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -367,173 +383,179 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5"/>
+      <c r="C10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4"/>
-      <c r="C10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="5"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="5"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="5"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="5"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="5"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="5"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="5"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="5"/>
+      <c r="F21" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
